--- a/braph2composite_rfe/pipelines/functional/Example data FUN XLS/FUN_Group_2_XLS.vois.xlsx
+++ b/braph2composite_rfe/pipelines/functional/Example data FUN XLS/FUN_Group_2_XLS.vois.xlsx
@@ -158,9 +158,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="true"/>
-    <col min="2" max="2" width="4" customWidth="true"/>
-    <col min="3" max="3" width="6.90625" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="4.5703125" customWidth="true"/>
+    <col min="3" max="3" width="7.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -186,7 +186,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>29</v>
@@ -197,10 +197,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="0">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -208,10 +208,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="0">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -219,10 +219,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="0">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -230,10 +230,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="0">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -241,10 +241,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="0">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -252,7 +252,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>30</v>
@@ -263,10 +263,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="0">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -274,7 +274,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="0">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>30</v>
@@ -285,7 +285,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="0">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>29</v>
@@ -296,7 +296,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>29</v>
@@ -307,10 +307,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -318,7 +318,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="0">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>30</v>
@@ -329,10 +329,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="0">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -340,7 +340,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="0">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>30</v>
@@ -351,7 +351,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="0">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>29</v>
@@ -362,10 +362,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -373,10 +373,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="0">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -384,7 +384,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>30</v>
@@ -395,10 +395,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="0">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -406,10 +406,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="0">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -417,7 +417,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="0">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>29</v>
@@ -428,10 +428,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="0">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -439,10 +439,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="0">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -450,10 +450,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="0">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
